--- a/[구매]프로그램진행현황_210111.xlsx
+++ b/[구매]프로그램진행현황_210111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="300" yWindow="795" windowWidth="28035" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="99">
   <si>
     <t>업무</t>
   </si>
@@ -340,10 +340,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>지급정보에 결의서 팝업 호출기능도 포함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>전자결재 첨부..?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -369,6 +365,18 @@
   </si>
   <si>
     <t>ㅇ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장기능 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>준공기성정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자계산서 조회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -823,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1631,10 +1639,10 @@
         <v>4</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -1658,23 +1666,23 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="12" t="s">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="14">
         <v>44203</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="14">
         <v>44203</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="13" t="s">
+      <c r="F46" s="14"/>
+      <c r="G46" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -1694,26 +1702,26 @@
         <v>4</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="12" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="14">
         <v>44204</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="14">
         <v>44204</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="13" t="s">
+      <c r="F48" s="14"/>
+      <c r="G48" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H48" s="17" t="s">
@@ -1721,19 +1729,19 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="7">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="14">
         <v>44204</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="14">
         <v>44204</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="13" t="s">
+      <c r="F49" s="14"/>
+      <c r="G49" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H49" s="17" t="s">
@@ -1741,19 +1749,19 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="7">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="14">
         <v>44204</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="14">
         <v>44204</v>
       </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="13" t="s">
+      <c r="F50" s="14"/>
+      <c r="G50" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H50" s="17" t="s">
@@ -1764,7 +1772,7 @@
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D51" s="7">
         <v>44204</v>
@@ -1777,44 +1785,50 @@
         <v>4</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I51" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="12" t="s">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="14">
         <v>44207</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="14">
         <v>44207</v>
       </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="13" t="s">
-        <v>4</v>
+      <c r="F52" s="14"/>
+      <c r="G52" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="12" t="s">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="14">
         <v>44207</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="14">
         <v>44207</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="13" t="s">
-        <v>4</v>
+      <c r="F53" s="14"/>
+      <c r="G53" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -1833,6 +1847,9 @@
       <c r="G54" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="H54" s="17" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
@@ -1850,6 +1867,9 @@
       <c r="G55" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="H55" s="17" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
@@ -1867,73 +1887,94 @@
       <c r="G56" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="H56" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I56" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="12" t="s">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="14">
         <v>44204</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="14">
         <v>44204</v>
       </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="13" t="s">
-        <v>4</v>
+      <c r="F57" s="14"/>
+      <c r="G57" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="12" t="s">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="14">
         <v>44204</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="14">
         <v>44204</v>
       </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="13" t="s">
-        <v>4</v>
+      <c r="F58" s="14"/>
+      <c r="G58" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I58" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="12" t="s">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="14">
         <v>44207</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="14">
         <v>44207</v>
       </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="13" t="s">
-        <v>4</v>
+      <c r="F59" s="14"/>
+      <c r="G59" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="12" t="s">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="14">
         <v>44207</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="14">
         <v>44207</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="13" t="s">
-        <v>4</v>
+      <c r="F60" s="14"/>
+      <c r="G60" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -1952,6 +1993,9 @@
       <c r="G61" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="H61" s="17" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
@@ -1969,6 +2013,9 @@
       <c r="G62" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="H62" s="17" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
@@ -1986,25 +2033,31 @@
       <c r="G63" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="H63" s="17" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="12" t="s">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="14">
         <v>44209</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="14">
         <v>44209</v>
       </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F64" s="14"/>
+      <c r="G64" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="12" t="s">
@@ -2020,8 +2073,11 @@
       <c r="G65" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="12" t="s">
@@ -2037,8 +2093,11 @@
       <c r="G66" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="12" t="s">
@@ -2054,8 +2113,11 @@
       <c r="G67" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>3</v>
       </c>
@@ -2076,7 +2138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="12" t="s">
@@ -2093,7 +2155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="12" t="s">
@@ -2110,7 +2172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="12" t="s">
@@ -2127,7 +2189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="12" t="s">
@@ -2144,7 +2206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>3</v>
       </c>
@@ -2165,7 +2227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="12" t="s">
@@ -2182,7 +2244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="12" t="s">
@@ -2199,7 +2261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>3</v>
       </c>
@@ -2220,7 +2282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="12" t="s">
@@ -2237,7 +2299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="12" t="s">

--- a/[구매]프로그램진행현황_210111.xlsx
+++ b/[구매]프로그램진행현황_210111.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="98">
   <si>
     <t>업무</t>
   </si>
@@ -336,22 +336,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>요구자 검색팝업추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>전자결재 첨부..?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>수정기능은 추후에 협의 후 처리(후속단 처리 이슈될수)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>▲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[계약관리 팝업] 물품상세 - [업체정보][변경이력] 탭 조회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -372,11 +360,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>준공기성정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전자계산서 조회</t>
+    <t>ㅇ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네고율 제외 / 경쟁입찰(나라장터 등)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일발송기능 해야함</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -831,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -847,7 +843,7 @@
     <col min="8" max="8" width="26.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -870,7 +866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -891,7 +887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="12" t="s">
@@ -908,7 +904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="12" t="s">
@@ -925,7 +921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="12" t="s">
@@ -942,7 +938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="12" t="s">
@@ -959,7 +955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -980,24 +976,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="12" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="14">
         <v>44214</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="14">
         <v>44214</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="12" t="s">
@@ -1013,8 +1009,11 @@
       <c r="G9" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="12" t="s">
@@ -1031,7 +1030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="12" t="s">
@@ -1048,7 +1047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="12" t="s">
@@ -1065,7 +1064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="12" t="s">
@@ -1082,7 +1081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="12" t="s">
@@ -1099,7 +1098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="12" t="s">
@@ -1116,7 +1115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="12" t="s">
@@ -1618,31 +1617,28 @@
       <c r="H43" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="I43" t="s">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="14">
+        <v>44202</v>
+      </c>
+      <c r="E44" s="14">
+        <v>44211</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="7">
-        <v>44202</v>
-      </c>
-      <c r="E44" s="7">
-        <v>44211</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I44" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -1682,30 +1678,30 @@
         <v>4</v>
       </c>
       <c r="H46" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="14">
+        <v>44203</v>
+      </c>
+      <c r="E47" s="14">
+        <v>44203</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="7">
-        <v>44203</v>
-      </c>
-      <c r="E47" s="7">
-        <v>44203</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>91</v>
-      </c>
       <c r="I47" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -1732,7 +1728,7 @@
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D49" s="14">
         <v>44204</v>
@@ -1752,7 +1748,7 @@
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D50" s="14">
         <v>44204</v>
@@ -1769,26 +1765,23 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="7">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="14">
         <v>44204</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="14">
         <v>44204</v>
       </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="13" t="s">
+      <c r="F51" s="14"/>
+      <c r="G51" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I51" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -1832,66 +1825,66 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="12" t="s">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="14">
         <v>44207</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="14">
         <v>44207</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="13" t="s">
+      <c r="F54" s="14"/>
+      <c r="G54" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="12" t="s">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="14">
         <v>44208</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="14">
         <v>44208</v>
       </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="13" t="s">
+      <c r="F55" s="14"/>
+      <c r="G55" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="12" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="14">
         <v>44204</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="14">
         <v>44204</v>
       </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="13" t="s">
+      <c r="F56" s="14"/>
+      <c r="G56" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I56" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -1933,9 +1926,6 @@
       <c r="H58" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="I58" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
@@ -1978,63 +1968,63 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="12" t="s">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="14">
         <v>44207</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="14">
         <v>44207</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="13" t="s">
+      <c r="F61" s="14"/>
+      <c r="G61" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="12" t="s">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="14">
         <v>44208</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="14">
         <v>44208</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="13" t="s">
+      <c r="F62" s="14"/>
+      <c r="G62" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="12" t="s">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="14">
         <v>44209</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="14">
         <v>44209</v>
       </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="13" t="s">
+      <c r="F63" s="14"/>
+      <c r="G63" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -2058,63 +2048,63 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="12" t="s">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="14">
         <v>44209</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="14">
         <v>44209</v>
       </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="13" t="s">
+      <c r="F65" s="14"/>
+      <c r="G65" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="12" t="s">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="14">
         <v>44210</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="14">
         <v>44210</v>
       </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="13" t="s">
+      <c r="F66" s="14"/>
+      <c r="G66" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="12" t="s">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="14">
         <v>44211</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="14">
         <v>44211</v>
       </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="13" t="s">
+      <c r="F67" s="14"/>
+      <c r="G67" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2328,6 +2318,7 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
